--- a/Organização Tasks Reaprender.xlsx
+++ b/Organização Tasks Reaprender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\generationgit\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECC1D5-1C8A-4706-998B-11693BE55443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42406F5-FDD5-40AF-838A-5F678DCBA661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20460" yWindow="5295" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20460" yWindow="4710" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloco 02" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>William</t>
+  </si>
+  <si>
+    <t>Flávio</t>
   </si>
 </sst>
 </file>
@@ -355,12 +358,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2579,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2672,16 +2675,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8"/>
@@ -2788,14 +2791,14 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2892,13 +2895,13 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="22" t="s">
         <v>8</v>
       </c>
@@ -2967,20 +2970,20 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14" t="s">
-        <v>10</v>
+      <c r="A27" s="14"/>
+      <c r="B27" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="8"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2990,7 +2993,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="8"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3000,7 +3003,7 @@
     </row>
     <row r="30" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="8"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -3009,16 +3012,18 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="14"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="23"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="G32" s="12"/>
@@ -3026,7 +3031,7 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="23"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="G33" s="12"/>
@@ -3034,7 +3039,7 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="24"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="G34" s="13"/>
@@ -3043,7 +3048,7 @@
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="9"/>
@@ -3053,7 +3058,7 @@
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="9"/>
@@ -3063,7 +3068,7 @@
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="9"/>
@@ -3073,7 +3078,7 @@
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="9" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="9"/>
@@ -3091,12 +3096,14 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="14"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -7909,35 +7916,9 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="E31:E34"/>
@@ -7954,15 +7935,41 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="G40:G43"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8057,14 +8064,14 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -8169,12 +8176,12 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8251,12 +8258,12 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -8322,14 +8329,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -8362,12 +8369,12 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="14"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -8444,12 +8451,12 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="14"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -8507,11 +8514,11 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="11"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8539,10 +8546,10 @@
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="14"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="11"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8612,10 +8619,10 @@
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="14"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="14"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="11"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="11"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13326,40 +13333,21 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="G15:G19"/>
@@ -13376,21 +13364,40 @@
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="E31:E34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="D55:D59"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/Organização Tasks Reaprender.xlsx
+++ b/Organização Tasks Reaprender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\generationgit\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42406F5-FDD5-40AF-838A-5F678DCBA661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F066D318-02D3-4D7C-8FB2-F7FEC0D03825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20460" yWindow="4710" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1320" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloco 02" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,17 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -329,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -358,31 +369,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2582,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2600,13 +2616,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2615,11 +2631,11 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2641,18 +2657,18 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="22"/>
+      <c r="D5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2675,16 +2691,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="17" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8"/>
@@ -2791,14 +2807,14 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2827,82 +2843,82 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="22" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2912,7 +2928,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="23"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -2920,7 +2936,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -2928,7 +2944,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -2936,18 +2952,18 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="D25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="G25" s="20" t="s">
+      <c r="E25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -2970,20 +2986,22 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="8"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2993,7 +3011,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="8"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3003,7 +3021,7 @@
     </row>
     <row r="30" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="8"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -3012,98 +3030,110 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="11"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="15"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="26"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="15"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="26"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="16"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="27"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="15"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="18"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="16"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="19"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="16"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="19"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="16"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="19"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="10"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="11"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -7916,44 +7946,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
     <mergeCell ref="H40:H43"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A39"/>
@@ -7965,6 +7957,44 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="G40:G43"/>
     <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="D31:D34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
@@ -7993,24 +8023,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8030,18 +8060,18 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="22"/>
+      <c r="D5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -8064,14 +8094,14 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -8176,12 +8206,12 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8208,62 +8238,62 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="9"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="9"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="9"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="9"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="10"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="17"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -8295,18 +8325,18 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="D25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="G25" s="20" t="s">
+      <c r="E25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -8329,14 +8359,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -8369,12 +8399,12 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="11"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="17"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="17"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -8401,62 +8431,62 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="9"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="9"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="9"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="9"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="10"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="11"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="17"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="17"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -8488,14 +8518,14 @@
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="D45" s="20" t="s">
+      <c r="B45" s="22"/>
+      <c r="D45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="22"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8514,11 +8544,11 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="17"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8546,10 +8576,10 @@
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="17"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="17"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8574,55 +8604,55 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="9"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="16"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="9"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="16"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="9"/>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="16"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="9"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="10"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="11"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="17"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="17"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13333,21 +13363,40 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="G15:G19"/>
@@ -13364,40 +13413,21 @@
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="E31:E34"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/Organização Tasks Reaprender.xlsx
+++ b/Organização Tasks Reaprender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\generationgit\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F066D318-02D3-4D7C-8FB2-F7FEC0D03825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A236BF66-5BE2-4750-B098-52B133D099A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1320" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloco 02" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -369,31 +369,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2598,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2616,13 +2616,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2631,11 +2631,11 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2657,18 +2657,18 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="21"/>
+      <c r="D5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="G5" s="21" t="s">
+      <c r="E5" s="21"/>
+      <c r="G5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2691,16 +2691,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8"/>
@@ -2807,14 +2807,14 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2843,82 +2843,82 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -2936,7 +2936,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -2944,7 +2944,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
@@ -2952,18 +2952,18 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="D25" s="21" t="s">
+      <c r="B25" s="21"/>
+      <c r="D25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="G25" s="21" t="s">
+      <c r="E25" s="21"/>
+      <c r="G25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -2986,22 +2986,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="17"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="8"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -3011,7 +3013,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="8"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3021,7 +3023,7 @@
     </row>
     <row r="30" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="8"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -3030,20 +3032,22 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="23"/>
       <c r="D32" s="12"/>
       <c r="E32" s="26"/>
       <c r="G32" s="12"/>
@@ -3051,7 +3055,7 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="23"/>
       <c r="D33" s="12"/>
       <c r="E33" s="26"/>
       <c r="G33" s="12"/>
@@ -3059,81 +3063,91 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="24"/>
       <c r="D34" s="13"/>
       <c r="E34" s="27"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="9"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="9"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="9"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="10"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="17"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -3141,7 +3155,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
@@ -3149,7 +3163,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -3157,7 +3171,7 @@
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
@@ -7946,6 +7960,40 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
     <mergeCell ref="H40:H43"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A39"/>
@@ -7957,40 +8005,6 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="G40:G43"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="H27:H30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="H31:H34"/>
@@ -8023,24 +8037,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8060,18 +8074,18 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="21"/>
+      <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="G5" s="21" t="s">
+      <c r="E5" s="21"/>
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -8094,14 +8108,14 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="17"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -8206,12 +8220,12 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8238,62 +8252,62 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="9"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="9"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="9"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="9"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="10"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -8325,18 +8339,18 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="D25" s="21" t="s">
+      <c r="B25" s="21"/>
+      <c r="D25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="G25" s="21" t="s">
+      <c r="E25" s="21"/>
+      <c r="G25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -8359,14 +8373,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="17"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -8399,12 +8413,12 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -8431,62 +8445,62 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="9"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="9"/>
-      <c r="G36" s="19"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="9"/>
-      <c r="G37" s="19"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="9"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="10"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="17"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="17"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="17"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -8518,14 +8532,14 @@
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="D45" s="21" t="s">
+      <c r="B45" s="21"/>
+      <c r="D45" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="21"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8544,11 +8558,11 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="11"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8576,10 +8590,10 @@
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="17"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="17"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="11"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8604,55 +8618,55 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="18"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="9"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="9"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="9"/>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="9"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="20"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="10"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="17"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="17"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="11"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="11"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13363,40 +13377,21 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="G15:G19"/>
@@ -13413,21 +13408,40 @@
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="E31:E34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="D55:D59"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/Organização Tasks Reaprender.xlsx
+++ b/Organização Tasks Reaprender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\generationgit\documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A236BF66-5BE2-4750-B098-52B133D099A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E195C45-6429-470B-BB1B-AD6839924276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>DISTRIBUIÇÃO DAS TAREFAS – PROJETO INTEGRADOR</t>
   </si>
@@ -122,11 +122,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,65 +347,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,6 +1276,341 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419100" cy="885825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D17387-A0F6-4F69-96F5-0B2B5B187D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548132" y="6506936"/>
+          <a:ext cx="419100" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438150" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="image5.png" descr="Diagrama&#10;&#10;Descrição gerada automaticamente com confiança baixa">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77A6D54-9DDC-4AB3-BF78-9236246846F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548132" y="7591425"/>
+          <a:ext cx="438150" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447675" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="image1.png" descr="Forma&#10;&#10;Descrição gerada automaticamente com confiança média" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5817E2-E2B6-4C1F-AF02-93F2A0918555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9538607" y="8673193"/>
+          <a:ext cx="447675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457200" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2AB093-8A0C-4849-8B15-DC1EEDA535DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548132" y="9655629"/>
+          <a:ext cx="457200" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>804182</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571F1A14-B2AC-D1CE-3383-236F140C0865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14478000" y="6505575"/>
+          <a:ext cx="419100" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>804182</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB04CD70-F4E3-28D4-8EAC-B51B736278E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14478000" y="6505575"/>
+          <a:ext cx="419100" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>804182</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C97A7D0-CAA6-4B39-9DCA-923C9EA38705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14478000" y="6505575"/>
+          <a:ext cx="419100" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2595,11 +2938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:H43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2612,17 +2955,20 @@
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="46.140625" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2631,11 +2977,11 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2657,18 +3003,18 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="22"/>
+      <c r="D5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2691,16 +3037,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8"/>
@@ -2807,14 +3153,14 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2870,7 +3216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>10</v>
@@ -2884,7 +3230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -2898,7 +3244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>10</v>
@@ -2910,62 +3256,66 @@
       <c r="G19" s="17"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11" t="s">
+    <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="22" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="E24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="D25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="G25" s="20" t="s">
+      <c r="E25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="22"/>
+      <c r="J25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2984,92 +3334,119 @@
       <c r="H26" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="22" t="s">
+      <c r="J26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="11"/>
+      <c r="K27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="8"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="8"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="8"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="8"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="8"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="22" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11" t="s">
+      <c r="G31" s="11"/>
+      <c r="H31" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="11"/>
+      <c r="K31" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="19"/>
       <c r="D32" s="12"/>
       <c r="E32" s="26"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="19"/>
       <c r="D33" s="12"/>
       <c r="E33" s="26"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="20"/>
       <c r="D34" s="13"/>
       <c r="E34" s="27"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
         <v>14</v>
@@ -3082,8 +3459,12 @@
       <c r="H35" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="15"/>
+      <c r="K35" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="9" t="s">
         <v>28</v>
@@ -3096,8 +3477,12 @@
       <c r="H36" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="16"/>
+      <c r="K36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="9" t="s">
         <v>16</v>
@@ -3110,8 +3495,12 @@
       <c r="H37" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="16"/>
+      <c r="K37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="9" t="s">
         <v>29</v>
@@ -3124,8 +3513,12 @@
       <c r="H38" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="16"/>
+      <c r="K38" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>10</v>
@@ -3134,66 +3527,80 @@
       <c r="E39" s="10"/>
       <c r="G39" s="17"/>
       <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11" t="s">
+      <c r="J39" s="17"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="22" t="s">
+      <c r="G40" s="11"/>
+      <c r="H40" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="11"/>
+      <c r="K40" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="19"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="19"/>
+    </row>
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="19"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="19"/>
+    </row>
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="20"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="E44" s="4"/>
       <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="E45" s="4"/>
       <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="E46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="E47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="E48" s="4"/>
       <c r="H48" s="4"/>
@@ -7959,7 +8366,48 @@
       <c r="H1000" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="G15:G19"/>
@@ -7976,44 +8424,12 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="D31:D34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8037,24 +8453,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8074,18 +8490,18 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="22"/>
+      <c r="D5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -8108,14 +8524,14 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -8220,12 +8636,12 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -8302,12 +8718,12 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
@@ -8339,18 +8755,18 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="D25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="G25" s="20" t="s">
+      <c r="E25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -8373,14 +8789,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -8413,12 +8829,12 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="11"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -8495,12 +8911,12 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="11"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="14"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -8532,14 +8948,14 @@
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="D45" s="20" t="s">
+      <c r="B45" s="22"/>
+      <c r="D45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="22"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8558,11 +8974,11 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="14"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8590,10 +9006,10 @@
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="14"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="14"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8663,10 +9079,10 @@
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="11"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="14"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="14"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13377,21 +13793,40 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="G15:G19"/>
@@ -13408,40 +13843,21 @@
     <mergeCell ref="H27:H30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="E31:E34"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
